--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_8_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_8_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.29000000000005</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.194886401799012e-16</v>
+        <v>3.218037752536686e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.42604942799954</v>
+        <v>41.21655819288165</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[32.80727392273807, 52.04482493326102]</t>
+          <t>[32.597647106742585, 49.835469279020714]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17613178422681</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 1.4277107755052718]</t>
+          <t>[1.1635528346628856, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.10388966423693</v>
+        <v>58.77879068701205</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.66593394392581, 64.54184538454805]</t>
+          <t>[53.398044840002015, 64.15953653402208]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.11759759759763</v>
+        <v>17.43863863863869</v>
       </c>
       <c r="X2" t="n">
-        <v>17.22510510510514</v>
+        <v>16.58468468468473</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.01009009009013</v>
+        <v>18.29259259259265</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.59000000000009</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.194886401799012e-16</v>
+        <v>3.218037752536686e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>38.88688300558907</v>
+        <v>39.32510796195057</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.303030613304884, 47.470735397873256]</t>
+          <t>[30.702943694213765, 47.94727222968738]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.83023716155081</v>
+        <v>1.314500229429963</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.5912371198362711, 2.0692372032653497]</t>
+          <t>[1.0755001877154244, 1.5535002711445012]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.25314463662534</v>
+        <v>63.58404808320635</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.265748977970404, 63.24054029528028]</t>
+          <t>[58.63779505080312, 68.53030111560957]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.00972972972979</v>
+        <v>17.76116116116122</v>
       </c>
       <c r="X3" t="n">
-        <v>15.15045045045051</v>
+        <v>16.90682682682688</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.86900900900908</v>
+        <v>18.61549549549555</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_8_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_8_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.45000000000007</v>
+        <v>22.33000000000005</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218037752536686e-16</v>
+        <v>3.265361837132813e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.21655819288165</v>
+        <v>40.06609949574695</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[32.597647106742585, 49.835469279020714]</t>
+          <t>[31.59640043714394, 48.53579855434995]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.402552876377425</v>
+        <v>1.515763422452734</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1635528346628856, 1.6415529180919641]</t>
+          <t>[1.2767633807381937, 1.754763464167274]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.77879068701205</v>
+        <v>60.58797324910748</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.398044840002015, 64.15953653402208]</t>
+          <t>[55.15888866723553, 66.01705783097943]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.43863863863869</v>
+        <v>16.94308308308312</v>
       </c>
       <c r="X2" t="n">
-        <v>16.58468468468473</v>
+        <v>16.09369369369372</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.29259259259265</v>
+        <v>17.79247247247251</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.46000000000007</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.218037752536686e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>3.265361837132813e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5709026312701944</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>39.32510796195057</v>
+        <v>41.83099544047898</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.702943694213765, 47.94727222968738]</t>
+          <t>[33.521698083293096, 50.14029279766486]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.314500229429963</v>
+        <v>1.264184431174272</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 1.5535002711445012]</t>
+          <t>[1.0629212381515023, 1.4654476241970409]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.58404808320635</v>
+        <v>57.66437469490084</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[58.63779505080312, 68.53030111560957]</t>
+          <t>[52.94266494800273, 62.38608444179896]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.76116116116122</v>
+        <v>17.89309309309314</v>
       </c>
       <c r="X3" t="n">
-        <v>16.90682682682688</v>
+        <v>17.17557557557562</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.61549549549555</v>
+        <v>18.61061061061066</v>
       </c>
     </row>
   </sheetData>
